--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -255,6 +255,36 @@
   </si>
   <si>
     <t>Identifiant du dossier de la personne prise en charge.</t>
+  </si>
+  <si>
+    <t>DossierPersonnePriseCharge.PersonnePriseCharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/PersonnePriseCharge
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe PersonnePriseCharge</t>
+  </si>
+  <si>
+    <t>DossierPersonnePriseCharge.Demande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Demande
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Demande</t>
+  </si>
+  <si>
+    <t>DossierPersonnePriseCharge.Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Document
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Document</t>
   </si>
 </sst>
 </file>
@@ -559,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -568,8 +598,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.9140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.9140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.82421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -578,7 +608,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -599,7 +629,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.82421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -915,6 +945,306 @@
         <v>71</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
+++ b/ML/ig/StructureDefinition-DossierPersonnePriseCharge.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
